--- a/DB/data/data_category_table_수정본.xlsx
+++ b/DB/data/data_category_table_수정본.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="12180" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="19515" windowHeight="8820" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -18,76 +18,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <x:si>
+    <x:t>category_p</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category_no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>category_name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잡화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>출판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인</x:t>
+  </x:si>
+  <x:si>
     <x:t>푸드</x:t>
   </x:si>
   <x:si>
-    <x:t>잡화</x:t>
+    <x:t>의류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>음악</x:t>
   </x:si>
   <x:si>
     <x:t>주얼리</x:t>
   </x:si>
   <x:si>
-    <x:t>출판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공연</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project_name</x:t>
+    <x:t>예술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사진</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보드게임 · TRPG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 · 굿즈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화 · 비디오</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디지털 게임</x:t>
   </x:si>
   <x:si>
     <x:t>웹툰 · 만화</x:t>
   </x:si>
   <x:si>
+    <x:t>테크 · 가전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>향수 · 뷰티</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹툰 리소스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>홈 · 리빙</x:t>
+  </x:si>
+  <x:si>
     <x:t>디자인 문구</x:t>
   </x:si>
   <x:si>
-    <x:t>테크 · 가전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>음악</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹툰 리소스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>향수 · 뷰티</x:t>
-  </x:si>
-  <x:si>
-    <x:t>예술</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영화 · 비디오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디지털 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>보드게임 · TRPG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디자인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project_no</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 · 굿즈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>홈 · 리빙</x:t>
-  </x:si>
-  <x:si>
     <x:t>반려동물</x:t>
-  </x:si>
-  <x:si>
-    <x:t>project_p</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -878,7 +878,7 @@
   <x:dimension ref="A1:C22"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C15" activeCellId="0" sqref="C15:C15"/>
+      <x:selection activeCell="F8" activeCellId="0" sqref="F8:F8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -889,13 +889,13 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C1" t="s">
-        <x:v>5</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
@@ -903,7 +903,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" t="s">
-        <x:v>16</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
@@ -911,7 +911,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C3" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -919,7 +919,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C4" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
@@ -927,7 +927,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -935,7 +935,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C6" t="s">
-        <x:v>7</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
@@ -943,7 +943,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C7" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
@@ -951,7 +951,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C8" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
@@ -959,7 +959,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>8</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
@@ -967,7 +967,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
@@ -975,7 +975,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>0</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
@@ -983,7 +983,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>11</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -991,7 +991,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="C13" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
@@ -999,7 +999,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C14" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
@@ -1007,7 +1007,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C15" t="s">
-        <x:v>2</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
@@ -1015,7 +1015,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C16" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
@@ -1023,7 +1023,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C17" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -1031,7 +1031,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C18" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
@@ -1039,7 +1039,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="C19" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
@@ -1055,7 +1055,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="C21" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
@@ -1063,11 +1063,11 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="C22" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1083,7 +1083,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1099,7 +1099,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>